--- a/rapporter_2025/Kostra 20 - Fylkesveg to- og trefelt midtrekkverk.xlsx
+++ b/rapporter_2025/Kostra 20 - Fylkesveg to- og trefelt midtrekkverk.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andryg\Documents\NVDB-Skripting\src\arb_kostrarapportering_2025\rapporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD82026-AC49-4BB0-AD13-615B0C9F986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED6D713-95A4-4DC6-9406-AAB9FA0D18D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43710" yWindow="1590" windowWidth="23445" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31995" yWindow="5715" windowWidth="23445" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fv 2-3 felt midtrekkverk" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -447,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +458,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>5576</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,87 +466,71 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>530</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>115</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>2838</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B7">
-        <v>624</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>1292</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9">
-        <v>232</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>6574</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>55</v>
-      </c>
-      <c r="B13">
-        <v>326</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -571,14 +542,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="89.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="94.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
